--- a/data_year/zb/运输和邮电/新注册民用汽车数量.xlsx
+++ b/data_year/zb/运输和邮电/新注册民用汽车数量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,818 +498,517 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.5062</v>
+        <v>7.6519</v>
       </c>
       <c r="C2" t="n">
-        <v>22.0969</v>
+        <v>23.8595</v>
       </c>
       <c r="D2" t="n">
-        <v>8.354100000000001</v>
+        <v>10.369</v>
       </c>
       <c r="E2" t="n">
-        <v>9.720000000000001</v>
+        <v>14.8234</v>
       </c>
       <c r="F2" t="n">
-        <v>149.1479</v>
+        <v>1208.6273</v>
       </c>
       <c r="G2" t="n">
-        <v>56.0908</v>
+        <v>23.5865</v>
       </c>
       <c r="H2" t="n">
-        <v>8.430899999999999</v>
+        <v>1.4563</v>
       </c>
       <c r="I2" t="n">
-        <v>337.1951</v>
+        <v>1528.8186</v>
       </c>
       <c r="J2" t="n">
-        <v>50.1985</v>
+        <v>161.4803</v>
       </c>
       <c r="K2" t="n">
-        <v>229.4649</v>
+        <v>1254.6891</v>
       </c>
       <c r="L2" t="n">
-        <v>99.37609999999999</v>
+        <v>263.7605</v>
       </c>
       <c r="M2" t="n">
-        <v>18.6498</v>
+        <v>76.9644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.7523</v>
+        <v>7.6472</v>
       </c>
       <c r="C3" t="n">
-        <v>25.9173</v>
+        <v>17.314</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0934</v>
+        <v>10.5333</v>
       </c>
       <c r="E3" t="n">
-        <v>10.0284</v>
+        <v>16.3258</v>
       </c>
       <c r="F3" t="n">
-        <v>242.1951</v>
+        <v>1324.4774</v>
       </c>
       <c r="G3" t="n">
-        <v>48.1101</v>
+        <v>21.0036</v>
       </c>
       <c r="H3" t="n">
-        <v>7.2083</v>
+        <v>0.7017</v>
       </c>
       <c r="I3" t="n">
-        <v>433.7485</v>
+        <v>1624.2474</v>
       </c>
       <c r="J3" t="n">
-        <v>57.6073</v>
+        <v>153.559</v>
       </c>
       <c r="K3" t="n">
-        <v>316.0859</v>
+        <v>1369.454</v>
       </c>
       <c r="L3" t="n">
-        <v>107.5692</v>
+        <v>244.2601</v>
       </c>
       <c r="M3" t="n">
-        <v>16.8363</v>
+        <v>72.6854</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.8357</v>
+        <v>7.1013</v>
       </c>
       <c r="C4" t="n">
-        <v>19.4438</v>
+        <v>13.9793</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0029</v>
+        <v>9.0037</v>
       </c>
       <c r="E4" t="n">
-        <v>9.6462</v>
+        <v>16.3517</v>
       </c>
       <c r="F4" t="n">
-        <v>284.1668</v>
+        <v>1487.5884</v>
       </c>
       <c r="G4" t="n">
-        <v>25.581</v>
+        <v>13.8387</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2475</v>
+        <v>0.4409</v>
       </c>
       <c r="I4" t="n">
-        <v>451.1823</v>
+        <v>1772.5011</v>
       </c>
       <c r="J4" t="n">
-        <v>56.4061</v>
+        <v>168.1908</v>
       </c>
       <c r="K4" t="n">
-        <v>333.2297</v>
+        <v>1524.8801</v>
       </c>
       <c r="L4" t="n">
-        <v>102.9497</v>
+        <v>238.6173</v>
       </c>
       <c r="M4" t="n">
-        <v>22.8523</v>
+        <v>56.0063</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.5314</v>
+        <v>8.116</v>
       </c>
       <c r="C5" t="n">
-        <v>17.5576</v>
+        <v>13.3402</v>
       </c>
       <c r="D5" t="n">
-        <v>10.4749</v>
+        <v>9.6531</v>
       </c>
       <c r="E5" t="n">
-        <v>9.9489</v>
+        <v>16.8946</v>
       </c>
       <c r="F5" t="n">
-        <v>371.2056</v>
+        <v>1717.3792</v>
       </c>
       <c r="G5" t="n">
-        <v>24.0645</v>
+        <v>9.906700000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>4.6042</v>
+        <v>0.3084</v>
       </c>
       <c r="I5" t="n">
-        <v>528.6287</v>
+        <v>2030.9394</v>
       </c>
       <c r="J5" t="n">
-        <v>63.9557</v>
+        <v>181.4385</v>
       </c>
       <c r="K5" t="n">
-        <v>415.7504</v>
+        <v>1752.2965</v>
       </c>
       <c r="L5" t="n">
-        <v>102.4034</v>
+        <v>268.9898</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2859</v>
+        <v>73.9027</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.2758</v>
+        <v>7.9646</v>
       </c>
       <c r="C6" t="n">
-        <v>14.7689</v>
+        <v>10.4425</v>
       </c>
       <c r="D6" t="n">
-        <v>12.6471</v>
+        <v>14.2831</v>
       </c>
       <c r="E6" t="n">
-        <v>9.5428</v>
+        <v>15.1405</v>
       </c>
       <c r="F6" t="n">
-        <v>438.2206</v>
+        <v>1905.0695</v>
       </c>
       <c r="G6" t="n">
-        <v>11.8275</v>
+        <v>8.504099999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2.1575</v>
+        <v>0.1803</v>
       </c>
       <c r="I6" t="n">
-        <v>573.0432</v>
+        <v>2205.1905</v>
       </c>
       <c r="J6" t="n">
-        <v>61.691</v>
+        <v>180.5471</v>
       </c>
       <c r="K6" t="n">
-        <v>467.8667</v>
+        <v>1936.6787</v>
       </c>
       <c r="L6" t="n">
-        <v>92.5294</v>
+        <v>254.2287</v>
       </c>
       <c r="M6" t="n">
-        <v>13.912</v>
+        <v>63.0588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.2059</v>
+        <v>6.708</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7867</v>
+        <v>7.2274</v>
       </c>
       <c r="D7" t="n">
-        <v>16.1564</v>
+        <v>7.1435</v>
       </c>
       <c r="E7" t="n">
-        <v>9.108700000000001</v>
+        <v>19.1034</v>
       </c>
       <c r="F7" t="n">
-        <v>477.2468</v>
+        <v>2086.2002</v>
       </c>
       <c r="G7" t="n">
-        <v>6.4428</v>
+        <v>8.2699</v>
       </c>
       <c r="H7" t="n">
-        <v>1.3567</v>
+        <v>0.2231</v>
       </c>
       <c r="I7" t="n">
-        <v>607.9209</v>
+        <v>2331.7507</v>
       </c>
       <c r="J7" t="n">
-        <v>59.1014</v>
+        <v>151.3773</v>
       </c>
       <c r="K7" t="n">
-        <v>500.0042</v>
+        <v>2120.2815</v>
       </c>
       <c r="L7" t="n">
-        <v>91.7603</v>
+        <v>204.3257</v>
       </c>
       <c r="M7" t="n">
-        <v>15.5155</v>
+        <v>45.4979</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.4024</v>
+        <v>5.9767</v>
       </c>
       <c r="C8" t="n">
-        <v>18.5338</v>
+        <v>7.7114</v>
       </c>
       <c r="D8" t="n">
-        <v>23.6799</v>
+        <v>8.8977</v>
       </c>
       <c r="E8" t="n">
-        <v>11.2811</v>
+        <v>19.4829</v>
       </c>
       <c r="F8" t="n">
-        <v>592.8095</v>
+        <v>2433.8735</v>
       </c>
       <c r="G8" t="n">
-        <v>12.1884</v>
+        <v>5.4784</v>
       </c>
       <c r="H8" t="n">
-        <v>1.2796</v>
+        <v>0.1173</v>
       </c>
       <c r="I8" t="n">
-        <v>763.1839</v>
+        <v>2724.4374</v>
       </c>
       <c r="J8" t="n">
-        <v>73.3343</v>
+        <v>177.9643</v>
       </c>
       <c r="K8" t="n">
-        <v>622.6814000000001</v>
+        <v>2464.8115</v>
       </c>
       <c r="L8" t="n">
-        <v>116.8226</v>
+        <v>250.7282</v>
       </c>
       <c r="M8" t="n">
-        <v>23.6749</v>
+        <v>64.93519999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.9548</v>
+        <v>4.6657</v>
       </c>
       <c r="C9" t="n">
-        <v>24.2679</v>
+        <v>6.6974</v>
       </c>
       <c r="D9" t="n">
-        <v>6.2543</v>
+        <v>11.3964</v>
       </c>
       <c r="E9" t="n">
-        <v>11.4984</v>
+        <v>17.1474</v>
       </c>
       <c r="F9" t="n">
-        <v>979.4452</v>
+        <v>2450.7374</v>
       </c>
       <c r="G9" t="n">
-        <v>26.957</v>
+        <v>7.6911</v>
       </c>
       <c r="H9" t="n">
-        <v>1.3834</v>
+        <v>0.2627</v>
       </c>
       <c r="I9" t="n">
-        <v>1245.9452</v>
+        <v>2800.3955</v>
       </c>
       <c r="J9" t="n">
-        <v>139.1249</v>
+        <v>203.7906</v>
       </c>
       <c r="K9" t="n">
-        <v>1024.8554</v>
+        <v>2480.2416</v>
       </c>
       <c r="L9" t="n">
-        <v>214.8355</v>
+        <v>308.7575</v>
       </c>
       <c r="M9" t="n">
-        <v>50.0593</v>
+        <v>98.0068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.6519</v>
+        <v>3.9514</v>
       </c>
       <c r="C10" t="n">
-        <v>23.8595</v>
+        <v>4.9591</v>
       </c>
       <c r="D10" t="n">
-        <v>10.369</v>
+        <v>14.2897</v>
       </c>
       <c r="E10" t="n">
-        <v>14.8234</v>
+        <v>15.576</v>
       </c>
       <c r="F10" t="n">
-        <v>1208.6273</v>
+        <v>2287.6458</v>
       </c>
       <c r="G10" t="n">
-        <v>23.5865</v>
+        <v>6.7653</v>
       </c>
       <c r="H10" t="n">
-        <v>1.4563</v>
+        <v>0.1675</v>
       </c>
       <c r="I10" t="n">
-        <v>1528.8186</v>
+        <v>2652.1129</v>
       </c>
       <c r="J10" t="n">
-        <v>161.4803</v>
+        <v>222.0492</v>
       </c>
       <c r="K10" t="n">
-        <v>1254.6891</v>
+        <v>2313.9385</v>
       </c>
       <c r="L10" t="n">
-        <v>263.7605</v>
+        <v>323.8847</v>
       </c>
       <c r="M10" t="n">
-        <v>76.9644</v>
+        <v>96.7089</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.6472</v>
+        <v>3.5844</v>
       </c>
       <c r="C11" t="n">
-        <v>17.314</v>
+        <v>5.5776</v>
       </c>
       <c r="D11" t="n">
-        <v>10.5333</v>
+        <v>16.5193</v>
       </c>
       <c r="E11" t="n">
-        <v>16.3258</v>
+        <v>13.3357</v>
       </c>
       <c r="F11" t="n">
-        <v>1324.4774</v>
+        <v>2164.8138</v>
       </c>
       <c r="G11" t="n">
-        <v>21.0036</v>
+        <v>2.8532</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7017</v>
+        <v>0.0208</v>
       </c>
       <c r="I11" t="n">
-        <v>1624.2474</v>
+        <v>2544.5941</v>
       </c>
       <c r="J11" t="n">
-        <v>153.559</v>
+        <v>233.7472</v>
       </c>
       <c r="K11" t="n">
-        <v>1369.454</v>
+        <v>2184.5871</v>
       </c>
       <c r="L11" t="n">
-        <v>244.2601</v>
+        <v>343.4877</v>
       </c>
       <c r="M11" t="n">
-        <v>72.6854</v>
+        <v>104.1421</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.1013</v>
+        <v>2.3424</v>
       </c>
       <c r="C12" t="n">
-        <v>13.9793</v>
+        <v>5.8835</v>
       </c>
       <c r="D12" t="n">
-        <v>9.0037</v>
+        <v>17.4629</v>
       </c>
       <c r="E12" t="n">
-        <v>16.3517</v>
+        <v>8.690200000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>1487.5884</v>
+        <v>1960.8897</v>
       </c>
       <c r="G12" t="n">
-        <v>13.8387</v>
+        <v>0.5221</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4409</v>
+        <v>0.0494</v>
       </c>
       <c r="I12" t="n">
-        <v>1772.5011</v>
+        <v>2400.1366</v>
       </c>
       <c r="J12" t="n">
-        <v>168.1908</v>
+        <v>260.6241</v>
       </c>
       <c r="K12" t="n">
-        <v>1524.8801</v>
+        <v>1972.4444</v>
       </c>
       <c r="L12" t="n">
-        <v>238.6173</v>
+        <v>410.2293</v>
       </c>
       <c r="M12" t="n">
-        <v>56.0063</v>
+        <v>143.6723</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.116</v>
+        <v>2.8291</v>
       </c>
       <c r="C13" t="n">
-        <v>13.3402</v>
+        <v>6.8424</v>
       </c>
       <c r="D13" t="n">
-        <v>9.6531</v>
+        <v>18.006</v>
       </c>
       <c r="E13" t="n">
-        <v>16.8946</v>
+        <v>8.1366</v>
       </c>
       <c r="F13" t="n">
-        <v>1717.3792</v>
+        <v>2185.0635</v>
       </c>
       <c r="G13" t="n">
-        <v>9.906700000000001</v>
+        <v>0.1137</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3084</v>
+        <v>0.0789</v>
       </c>
       <c r="I13" t="n">
-        <v>2030.9394</v>
+        <v>2617.9642</v>
       </c>
       <c r="J13" t="n">
-        <v>181.4385</v>
+        <v>259.8107</v>
       </c>
       <c r="K13" t="n">
-        <v>1752.2965</v>
+        <v>2196.1429</v>
       </c>
       <c r="L13" t="n">
-        <v>268.9898</v>
+        <v>403.8153</v>
       </c>
       <c r="M13" t="n">
-        <v>73.9027</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7.9646</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10.4425</v>
-      </c>
-      <c r="D14" t="n">
-        <v>14.2831</v>
-      </c>
-      <c r="E14" t="n">
-        <v>15.1405</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1905.0695</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8.504099999999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.1803</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2205.1905</v>
-      </c>
-      <c r="J14" t="n">
-        <v>180.5471</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1936.6787</v>
-      </c>
-      <c r="L14" t="n">
-        <v>254.2287</v>
-      </c>
-      <c r="M14" t="n">
-        <v>63.0588</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6.708</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7.2274</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7.1435</v>
-      </c>
-      <c r="E15" t="n">
-        <v>19.1034</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2086.2002</v>
-      </c>
-      <c r="G15" t="n">
-        <v>8.2699</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.2231</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2331.7507</v>
-      </c>
-      <c r="J15" t="n">
-        <v>151.3773</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2120.2815</v>
-      </c>
-      <c r="L15" t="n">
-        <v>204.3257</v>
-      </c>
-      <c r="M15" t="n">
-        <v>45.4979</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5.9767</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7.7114</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8.8977</v>
-      </c>
-      <c r="E16" t="n">
-        <v>19.4829</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2433.8735</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5.4784</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.1173</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2724.4374</v>
-      </c>
-      <c r="J16" t="n">
-        <v>177.9643</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2464.8115</v>
-      </c>
-      <c r="L16" t="n">
-        <v>250.7282</v>
-      </c>
-      <c r="M16" t="n">
-        <v>64.93519999999999</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4.6657</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.6974</v>
-      </c>
-      <c r="D17" t="n">
-        <v>11.3964</v>
-      </c>
-      <c r="E17" t="n">
-        <v>17.1474</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2450.7374</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7.6911</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.2627</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2800.3955</v>
-      </c>
-      <c r="J17" t="n">
-        <v>203.7906</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2480.2416</v>
-      </c>
-      <c r="L17" t="n">
-        <v>308.7575</v>
-      </c>
-      <c r="M17" t="n">
-        <v>98.0068</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3.9514</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4.9591</v>
-      </c>
-      <c r="D18" t="n">
-        <v>14.2897</v>
-      </c>
-      <c r="E18" t="n">
-        <v>15.576</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2287.6458</v>
-      </c>
-      <c r="G18" t="n">
-        <v>6.7653</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.1675</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2652.1129</v>
-      </c>
-      <c r="J18" t="n">
-        <v>222.0492</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2313.9385</v>
-      </c>
-      <c r="L18" t="n">
-        <v>323.8847</v>
-      </c>
-      <c r="M18" t="n">
-        <v>96.7089</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3.5844</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5.5776</v>
-      </c>
-      <c r="D19" t="n">
-        <v>16.5193</v>
-      </c>
-      <c r="E19" t="n">
-        <v>13.3357</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2164.8138</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.8532</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0208</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2544.5941</v>
-      </c>
-      <c r="J19" t="n">
-        <v>233.7472</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2184.5871</v>
-      </c>
-      <c r="L19" t="n">
-        <v>343.4877</v>
-      </c>
-      <c r="M19" t="n">
-        <v>104.1421</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2.3424</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5.8835</v>
-      </c>
-      <c r="D20" t="n">
-        <v>17.4629</v>
-      </c>
-      <c r="E20" t="n">
-        <v>8.690200000000001</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1960.8897</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.5221</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.0494</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2400.1366</v>
-      </c>
-      <c r="J20" t="n">
-        <v>260.6241</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1972.4444</v>
-      </c>
-      <c r="L20" t="n">
-        <v>410.2293</v>
-      </c>
-      <c r="M20" t="n">
-        <v>143.6723</v>
+        <v>137.0833</v>
       </c>
     </row>
   </sheetData>
